--- a/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/ICOLOR_NO_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/ICOLOR_NO_ORACLE_COLLECTED_RESULTS.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ICOLOR_TestLoss_CollectedResult" sheetId="1" r:id="rId1"/>
-    <sheet name="Everything" sheetId="7" r:id="rId2"/>
-    <sheet name="ICOLOR_TestAccuracy_CollectedRe" sheetId="2" r:id="rId3"/>
-    <sheet name="ICOLOR_UP_CollectedResults" sheetId="3" r:id="rId4"/>
-    <sheet name="ICOLOR_DOWN_CollectedResults" sheetId="4" r:id="rId5"/>
-    <sheet name="ICOLOR_HOLE_CollectedResults" sheetId="5" r:id="rId6"/>
-    <sheet name="ICOLOR_NA_CollectedResults" sheetId="6" r:id="rId7"/>
+    <sheet name="ICOLOR_TestAccuracy_CollectedRe" sheetId="2" r:id="rId2"/>
+    <sheet name="ICOLOR_UP_CollectedResults" sheetId="3" r:id="rId3"/>
+    <sheet name="ICOLOR_DOWN_CollectedResults" sheetId="4" r:id="rId4"/>
+    <sheet name="ICOLOR_HOLE_CollectedResults" sheetId="5" r:id="rId5"/>
+    <sheet name="ICOLOR_NA_CollectedResults" sheetId="6" r:id="rId6"/>
+    <sheet name="Everything" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +168,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,8 +202,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -197,7 +217,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -303,7 +327,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -583,7 +607,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -770,11 +796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1353210640"/>
-        <c:axId val="-1354606400"/>
+        <c:axId val="-230006768"/>
+        <c:axId val="-234698848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1353210640"/>
+        <c:axId val="-230006768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1354606400"/>
+        <c:crossAx val="-234698848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -824,9 +850,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1354606400"/>
+        <c:axId val="-234698848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -844,6 +871,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -874,7 +902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1353210640"/>
+        <c:crossAx val="-230006768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,8 +1538,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3241,396 +3269,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.99158721685403972</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.95230240821876</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.1823121740815199</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.6769975374343602</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.3924125459188803</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.2050218695397201</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.17509545099752</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.8091485514638803</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.2926820982701199</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1.1501529518367599</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.1668160788116402</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.90759959572556</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1.2754326763597996</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.3125156746958004</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1.17911388516372</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1.9824795838826399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.627</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.54200000000000015</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.58800000000000008</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.62699999999999989</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.6479999999999998</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.66999999999999982</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.69900000000000007</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.70100000000000007</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.71100000000000008</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.62699999999999978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.51999999999999991</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.48399999999999993</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.54400000000000015</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.59199999999999986</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.64399999999999979</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.63200000000000012</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.67199999999999993</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.6080000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.46400000000000008</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.54799999999999993</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.44399999999999989</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.44799999999999995</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.60400000000000009</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.52400000000000013</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.58800000000000008</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.6160000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.82800000000000007</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.82800000000000007</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.752</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.82799999999999985</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.7360000000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.752</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.73200000000000021</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.79599999999999993</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.80800000000000016</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.63600000000000012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.63600000000000012</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.44800000000000006</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.63600000000000023</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.63200000000000012</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.66400000000000015</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.63600000000000012</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.72800000000000009</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.73200000000000021</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.71999999999999986</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.7639999999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.77600000000000013</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5041,7 +4679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -6450,7 +6088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -7859,7 +7497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -9268,7 +8906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -10675,4 +10313,394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.99158721685403972</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.95230240821876</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1823121740815199</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.6769975374343602</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.3924125459188803</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.2050218695397201</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.17509545099752</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.8091485514638803</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.2926820982701199</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.1501529518367599</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.1668160788116402</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.90759959572556</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.2754326763597996</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1.3125156746958004</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.17911388516372</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.9824795838826399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.54200000000000015</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.58800000000000008</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.62699999999999989</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.6479999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.66999999999999982</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.70100000000000007</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.71100000000000008</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.62699999999999978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.48399999999999993</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.54400000000000015</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.59199999999999986</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.64399999999999979</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.63200000000000012</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.6080000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.46400000000000008</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.44399999999999989</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.60400000000000009</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.52400000000000013</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.58800000000000008</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.6160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.82799999999999985</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.752</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.73200000000000021</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.79599999999999993</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.80800000000000016</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.63600000000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.63600000000000012</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.44800000000000006</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.63600000000000023</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.63200000000000012</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.66400000000000015</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.63600000000000012</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.72800000000000009</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.73200000000000021</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.71999999999999986</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.7639999999999999</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.77600000000000013</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/ICOLOR_NO_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/ICOLOR_NO_ORACLE_COLLECTED_RESULTS.xlsx
@@ -249,6 +249,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ICOLOR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> RANDOM ORACLE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -796,11 +826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-230006768"/>
-        <c:axId val="-234698848"/>
+        <c:axId val="1386575872"/>
+        <c:axId val="1386577504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-230006768"/>
+        <c:axId val="1386575872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-234698848"/>
+        <c:crossAx val="1386577504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-234698848"/>
+        <c:axId val="1386577504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -902,7 +932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-230006768"/>
+        <c:crossAx val="1386575872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10320,7 +10350,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
